--- a/Correzione prova/PiffariMichele_1.xlsx
+++ b/Correzione prova/PiffariMichele_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miche\OneDrive\Desktop\I anno Magistrale\Informatica III - Modulo di programmazione\PROGETTI_INFOIIIA_MICHELEPIFFARI\Correzione prova\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C866849-C4DE-49C1-A151-A3107C32133D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BB244D5-2122-4B3D-97EB-E3372030B092}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -895,21 +895,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -953,12 +938,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -972,15 +951,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1021,20 +991,50 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1051,6 +1051,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4848902</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>57849</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Immagine 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08DAFBD6-58DF-4FFA-A28E-D309A6757DA0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2073088" y="2342029"/>
+          <a:ext cx="4848902" cy="5010849"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1318,8 +1367,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D3A0987-4FAD-4882-B730-EEB05FCF9DE7}">
   <dimension ref="B1:J8"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1364,7 +1413,7 @@
         <v>39</v>
       </c>
       <c r="E4" s="19"/>
-      <c r="F4" s="75">
+      <c r="F4" s="65">
         <v>0</v>
       </c>
       <c r="G4" s="26"/>
@@ -1428,6 +1477,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1435,7 +1485,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="E1:U56"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="F56" sqref="F56"/>
     </sheetView>
   </sheetViews>
@@ -1557,11 +1607,11 @@
       <c r="E11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="36" t="s">
+      <c r="F11" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
+      <c r="G11" s="72"/>
+      <c r="H11" s="72"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
@@ -1695,12 +1745,12 @@
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="2"/>
-      <c r="J20" s="36" t="s">
+      <c r="J20" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="K20" s="36"/>
-      <c r="L20" s="36"/>
-      <c r="M20" s="36"/>
+      <c r="K20" s="72"/>
+      <c r="L20" s="72"/>
+      <c r="M20" s="72"/>
       <c r="S20" s="2"/>
       <c r="U20" s="16"/>
     </row>
@@ -1708,11 +1758,11 @@
       <c r="E21" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F21" s="36" t="s">
+      <c r="F21" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="G21" s="36"/>
-      <c r="H21" s="36"/>
+      <c r="G21" s="72"/>
+      <c r="H21" s="72"/>
       <c r="I21" s="2"/>
       <c r="S21" s="2"/>
     </row>
@@ -1826,11 +1876,11 @@
       <c r="E33" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F33" s="36" t="s">
+      <c r="F33" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="G33" s="36"/>
-      <c r="H33" s="36"/>
+      <c r="G33" s="72"/>
+      <c r="H33" s="72"/>
     </row>
     <row r="34" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E34" s="2"/>
@@ -1960,22 +2010,22 @@
         <v>1</v>
       </c>
       <c r="H42" s="1"/>
-      <c r="J42" s="36" t="s">
+      <c r="J42" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="K42" s="36"/>
-      <c r="L42" s="36"/>
-      <c r="M42" s="36"/>
+      <c r="K42" s="72"/>
+      <c r="L42" s="72"/>
+      <c r="M42" s="72"/>
     </row>
     <row r="43" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E43" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F43" s="36" t="s">
+      <c r="F43" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="G43" s="36"/>
-      <c r="H43" s="36"/>
+      <c r="G43" s="72"/>
+      <c r="H43" s="72"/>
     </row>
     <row r="45" spans="5:13" s="29" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="47" spans="5:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2088,12 +2138,12 @@
       <c r="M53" s="5"/>
     </row>
     <row r="54" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E54" s="33" t="s">
+      <c r="E54" s="69" t="s">
         <v>37</v>
       </c>
-      <c r="F54" s="34"/>
-      <c r="G54" s="34"/>
-      <c r="H54" s="35"/>
+      <c r="F54" s="70"/>
+      <c r="G54" s="70"/>
+      <c r="H54" s="71"/>
       <c r="I54" s="2"/>
       <c r="J54" s="5"/>
       <c r="K54" s="5"/>
@@ -2102,9 +2152,9 @@
     </row>
     <row r="55" spans="5:13" x14ac:dyDescent="0.25">
       <c r="J55" s="5"/>
-      <c r="K55" s="32"/>
-      <c r="L55" s="32"/>
-      <c r="M55" s="32"/>
+      <c r="K55" s="68"/>
+      <c r="L55" s="68"/>
+      <c r="M55" s="68"/>
     </row>
     <row r="56" spans="5:13" s="29" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -2127,8 +2177,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F14C544-ABE6-4B16-8A75-B731BA6F0096}">
   <dimension ref="B1:CB33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Y4" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
+      <selection activeCell="M53" sqref="M53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2137,57 +2187,57 @@
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="3.28515625" style="37" customWidth="1"/>
+    <col min="7" max="7" width="3.28515625" style="32" customWidth="1"/>
     <col min="9" max="9" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="3.28515625" style="37" customWidth="1"/>
+    <col min="14" max="14" width="3.28515625" style="32" customWidth="1"/>
     <col min="16" max="16" width="23.42578125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="15" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="3.85546875" style="37" customWidth="1"/>
+    <col min="21" max="21" width="3.85546875" style="32" customWidth="1"/>
     <col min="23" max="23" width="23.42578125" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="15" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="4" style="37" customWidth="1"/>
+    <col min="28" max="28" width="4" style="32" customWidth="1"/>
     <col min="30" max="30" width="23.42578125" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="15" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="3.7109375" style="37" customWidth="1"/>
+    <col min="35" max="35" width="3.7109375" style="32" customWidth="1"/>
     <col min="36" max="36" width="27.28515625" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="23.42578125" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="37.28515625" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="4.42578125" style="37" customWidth="1"/>
+    <col min="42" max="42" width="4.42578125" style="32" customWidth="1"/>
     <col min="44" max="44" width="27.28515625" bestFit="1" customWidth="1"/>
     <col min="45" max="45" width="23.42578125" bestFit="1" customWidth="1"/>
     <col min="46" max="46" width="15" bestFit="1" customWidth="1"/>
     <col min="47" max="47" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="48" max="48" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="4.140625" style="37" customWidth="1"/>
+    <col min="50" max="50" width="4.140625" style="32" customWidth="1"/>
     <col min="52" max="52" width="27.28515625" bestFit="1" customWidth="1"/>
     <col min="53" max="53" width="23.42578125" bestFit="1" customWidth="1"/>
     <col min="54" max="54" width="15" bestFit="1" customWidth="1"/>
     <col min="55" max="55" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="56" max="56" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="4" style="37" customWidth="1"/>
+    <col min="58" max="58" width="4" style="32" customWidth="1"/>
     <col min="60" max="60" width="31.42578125" bestFit="1" customWidth="1"/>
     <col min="61" max="61" width="23.42578125" bestFit="1" customWidth="1"/>
     <col min="62" max="62" width="15" bestFit="1" customWidth="1"/>
     <col min="63" max="63" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="64" max="64" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="4.28515625" style="37" customWidth="1"/>
+    <col min="66" max="66" width="4.28515625" style="32" customWidth="1"/>
     <col min="68" max="68" width="27.28515625" bestFit="1" customWidth="1"/>
     <col min="69" max="69" width="23.42578125" bestFit="1" customWidth="1"/>
     <col min="70" max="70" width="15" bestFit="1" customWidth="1"/>
     <col min="71" max="71" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="72" max="72" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="4.5703125" style="37" customWidth="1"/>
+    <col min="74" max="74" width="4.5703125" style="32" customWidth="1"/>
     <col min="76" max="76" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="77" max="77" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="78" max="78" width="15" bestFit="1" customWidth="1"/>
@@ -2197,136 +2247,136 @@
   <sheetData>
     <row r="1" spans="2:80" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:80" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="39" t="s">
+      <c r="B2" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="39" t="s">
+      <c r="D2" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="40" t="s">
+      <c r="E2" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="J2" s="42" t="s">
+      <c r="I2" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="42" t="s">
+      <c r="K2" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="43" t="s">
+      <c r="L2" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="P2" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="42" t="s">
+      <c r="P2" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="R2" s="42" t="s">
+      <c r="R2" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="S2" s="43" t="s">
+      <c r="S2" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="W2" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="X2" s="42" t="s">
+      <c r="W2" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="X2" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="Y2" s="42" t="s">
+      <c r="Y2" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="Z2" s="43" t="s">
+      <c r="Z2" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="AD2" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE2" s="42" t="s">
+      <c r="AD2" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="AF2" s="42" t="s">
+      <c r="AF2" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="AG2" s="43" t="s">
+      <c r="AG2" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="AK2" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="AL2" s="42" t="s">
+      <c r="AK2" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL2" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="AM2" s="42" t="s">
+      <c r="AM2" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="AN2" s="43" t="s">
+      <c r="AN2" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="AS2" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="AT2" s="42" t="s">
+      <c r="AS2" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="AT2" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="AU2" s="42" t="s">
+      <c r="AU2" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="AV2" s="43" t="s">
+      <c r="AV2" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="BA2" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="BB2" s="42" t="s">
+      <c r="BA2" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="BB2" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="BC2" s="42" t="s">
+      <c r="BC2" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="BD2" s="43" t="s">
+      <c r="BD2" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="BI2" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="BJ2" s="42" t="s">
+      <c r="BI2" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="BJ2" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="BK2" s="42" t="s">
+      <c r="BK2" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="BL2" s="43" t="s">
+      <c r="BL2" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="BQ2" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="BR2" s="42" t="s">
+      <c r="BQ2" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="BR2" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="BS2" s="42" t="s">
+      <c r="BS2" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="BT2" s="43" t="s">
+      <c r="BT2" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="BY2" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="BZ2" s="42" t="s">
+      <c r="BY2" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="BZ2" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="CA2" s="42" t="s">
+      <c r="CA2" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="CB2" s="43" t="s">
+      <c r="CB2" s="38" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2337,66 +2387,66 @@
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
       <c r="E3" s="12"/>
-      <c r="I3" s="44" t="s">
+      <c r="I3" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="46"/>
-      <c r="P3" s="44" t="s">
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="41"/>
+      <c r="P3" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="Q3" s="45"/>
-      <c r="R3" s="45"/>
-      <c r="S3" s="46"/>
-      <c r="W3" s="44" t="s">
+      <c r="Q3" s="40"/>
+      <c r="R3" s="40"/>
+      <c r="S3" s="41"/>
+      <c r="W3" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="X3" s="45"/>
-      <c r="Y3" s="45"/>
-      <c r="Z3" s="46"/>
-      <c r="AD3" s="44" t="s">
+      <c r="X3" s="40"/>
+      <c r="Y3" s="40"/>
+      <c r="Z3" s="41"/>
+      <c r="AD3" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="AE3" s="45"/>
-      <c r="AF3" s="45"/>
-      <c r="AG3" s="46"/>
-      <c r="AK3" s="44" t="s">
+      <c r="AE3" s="40"/>
+      <c r="AF3" s="40"/>
+      <c r="AG3" s="41"/>
+      <c r="AK3" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="AL3" s="45"/>
-      <c r="AM3" s="45"/>
-      <c r="AN3" s="46"/>
-      <c r="AS3" s="44" t="s">
+      <c r="AL3" s="40"/>
+      <c r="AM3" s="40"/>
+      <c r="AN3" s="41"/>
+      <c r="AS3" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="AT3" s="45"/>
-      <c r="AU3" s="45"/>
-      <c r="AV3" s="46"/>
-      <c r="BA3" s="44" t="s">
+      <c r="AT3" s="40"/>
+      <c r="AU3" s="40"/>
+      <c r="AV3" s="41"/>
+      <c r="BA3" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="BB3" s="45"/>
-      <c r="BC3" s="45"/>
-      <c r="BD3" s="46"/>
-      <c r="BI3" s="44" t="s">
+      <c r="BB3" s="40"/>
+      <c r="BC3" s="40"/>
+      <c r="BD3" s="41"/>
+      <c r="BI3" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="BJ3" s="45"/>
-      <c r="BK3" s="45"/>
-      <c r="BL3" s="46"/>
-      <c r="BQ3" s="44" t="s">
+      <c r="BJ3" s="40"/>
+      <c r="BK3" s="40"/>
+      <c r="BL3" s="41"/>
+      <c r="BQ3" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="BR3" s="45"/>
-      <c r="BS3" s="45"/>
-      <c r="BT3" s="46"/>
-      <c r="BY3" s="44" t="s">
+      <c r="BR3" s="40"/>
+      <c r="BS3" s="40"/>
+      <c r="BT3" s="41"/>
+      <c r="BY3" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="BZ3" s="45"/>
-      <c r="CA3" s="45"/>
-      <c r="CB3" s="46"/>
+      <c r="BZ3" s="40"/>
+      <c r="CA3" s="40"/>
+      <c r="CB3" s="41"/>
     </row>
     <row r="4" spans="2:80" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="3"/>
@@ -2407,86 +2457,86 @@
         <v>0</v>
       </c>
       <c r="E4" s="3"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="48" t="s">
+      <c r="I4" s="42"/>
+      <c r="J4" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="K4" s="48">
-        <v>0</v>
-      </c>
-      <c r="L4" s="49"/>
-      <c r="P4" s="47"/>
-      <c r="Q4" s="48" t="s">
+      <c r="K4" s="43">
+        <v>0</v>
+      </c>
+      <c r="L4" s="44"/>
+      <c r="P4" s="42"/>
+      <c r="Q4" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="R4" s="48">
-        <v>0</v>
-      </c>
-      <c r="S4" s="49"/>
-      <c r="W4" s="47"/>
-      <c r="X4" s="48" t="s">
+      <c r="R4" s="43">
+        <v>0</v>
+      </c>
+      <c r="S4" s="44"/>
+      <c r="W4" s="42"/>
+      <c r="X4" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="Y4" s="48">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="49"/>
-      <c r="AD4" s="47"/>
-      <c r="AE4" s="48" t="s">
+      <c r="Y4" s="43">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="44"/>
+      <c r="AD4" s="42"/>
+      <c r="AE4" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="AF4" s="48">
-        <v>0</v>
-      </c>
-      <c r="AG4" s="49"/>
-      <c r="AK4" s="47"/>
-      <c r="AL4" s="48" t="s">
+      <c r="AF4" s="43">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="44"/>
+      <c r="AK4" s="42"/>
+      <c r="AL4" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="AM4" s="48">
-        <v>0</v>
-      </c>
-      <c r="AN4" s="49"/>
-      <c r="AS4" s="47"/>
-      <c r="AT4" s="48" t="s">
+      <c r="AM4" s="43">
+        <v>0</v>
+      </c>
+      <c r="AN4" s="44"/>
+      <c r="AS4" s="42"/>
+      <c r="AT4" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="AU4" s="48">
-        <v>0</v>
-      </c>
-      <c r="AV4" s="49"/>
-      <c r="BA4" s="47"/>
-      <c r="BB4" s="48" t="s">
+      <c r="AU4" s="43">
+        <v>0</v>
+      </c>
+      <c r="AV4" s="44"/>
+      <c r="BA4" s="42"/>
+      <c r="BB4" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="BC4" s="48">
-        <v>0</v>
-      </c>
-      <c r="BD4" s="49"/>
-      <c r="BI4" s="47"/>
-      <c r="BJ4" s="48" t="s">
+      <c r="BC4" s="43">
+        <v>0</v>
+      </c>
+      <c r="BD4" s="44"/>
+      <c r="BI4" s="42"/>
+      <c r="BJ4" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="BK4" s="48">
-        <v>0</v>
-      </c>
-      <c r="BL4" s="49"/>
-      <c r="BQ4" s="47"/>
-      <c r="BR4" s="48" t="s">
+      <c r="BK4" s="43">
+        <v>0</v>
+      </c>
+      <c r="BL4" s="44"/>
+      <c r="BQ4" s="42"/>
+      <c r="BR4" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="BS4" s="48">
-        <v>0</v>
-      </c>
-      <c r="BT4" s="49"/>
-      <c r="BY4" s="56"/>
-      <c r="BZ4" s="57" t="s">
+      <c r="BS4" s="43">
+        <v>0</v>
+      </c>
+      <c r="BT4" s="44"/>
+      <c r="BY4" s="49"/>
+      <c r="BZ4" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="CA4" s="57">
-        <v>0</v>
-      </c>
-      <c r="CB4" s="71"/>
+      <c r="CA4" s="50">
+        <v>0</v>
+      </c>
+      <c r="CB4" s="61"/>
     </row>
     <row r="5" spans="2:80" x14ac:dyDescent="0.25">
       <c r="B5" s="2"/>
@@ -2503,84 +2553,84 @@
       <c r="L5" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="P5" s="44" t="s">
+      <c r="P5" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="Q5" s="45" t="s">
+      <c r="Q5" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="R5" s="45"/>
-      <c r="S5" s="46" t="s">
+      <c r="R5" s="40"/>
+      <c r="S5" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="W5" s="44" t="s">
+      <c r="W5" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="X5" s="45" t="s">
+      <c r="X5" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="Y5" s="45"/>
-      <c r="Z5" s="46" t="s">
+      <c r="Y5" s="40"/>
+      <c r="Z5" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="AD5" s="44" t="s">
+      <c r="AD5" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="AE5" s="45" t="s">
+      <c r="AE5" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="AF5" s="45"/>
-      <c r="AG5" s="46" t="s">
+      <c r="AF5" s="40"/>
+      <c r="AG5" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="AK5" s="44" t="s">
+      <c r="AK5" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="AL5" s="45" t="s">
+      <c r="AL5" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="AM5" s="45"/>
-      <c r="AN5" s="46" t="s">
+      <c r="AM5" s="40"/>
+      <c r="AN5" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="AS5" s="44" t="s">
+      <c r="AS5" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="AT5" s="45" t="s">
+      <c r="AT5" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="AU5" s="45"/>
-      <c r="AV5" s="46" t="s">
+      <c r="AU5" s="40"/>
+      <c r="AV5" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="BA5" s="44" t="s">
+      <c r="BA5" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="BB5" s="45" t="s">
+      <c r="BB5" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="BC5" s="45"/>
-      <c r="BD5" s="46" t="s">
+      <c r="BC5" s="40"/>
+      <c r="BD5" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="BI5" s="44" t="s">
+      <c r="BI5" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="BJ5" s="45" t="s">
+      <c r="BJ5" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="BK5" s="45"/>
-      <c r="BL5" s="46" t="s">
+      <c r="BK5" s="40"/>
+      <c r="BL5" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="BQ5" s="44" t="s">
+      <c r="BQ5" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="BR5" s="45" t="s">
+      <c r="BR5" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="BS5" s="45"/>
-      <c r="BT5" s="46" t="s">
+      <c r="BS5" s="40"/>
+      <c r="BT5" s="41" t="s">
         <v>7</v>
       </c>
       <c r="BY5" s="3" t="s">
@@ -2607,68 +2657,68 @@
       <c r="L6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="P6" s="50"/>
+      <c r="P6" s="45"/>
       <c r="Q6" s="3" t="s">
         <v>6</v>
       </c>
       <c r="R6" s="3"/>
-      <c r="S6" s="51" t="s">
+      <c r="S6" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="W6" s="50"/>
+      <c r="W6" s="45"/>
       <c r="X6" s="3" t="s">
         <v>6</v>
       </c>
       <c r="Y6" s="3"/>
-      <c r="Z6" s="51" t="s">
+      <c r="Z6" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="AD6" s="50"/>
+      <c r="AD6" s="45"/>
       <c r="AE6" s="3" t="s">
         <v>6</v>
       </c>
       <c r="AF6" s="3"/>
-      <c r="AG6" s="51" t="s">
+      <c r="AG6" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="AK6" s="50"/>
+      <c r="AK6" s="45"/>
       <c r="AL6" s="3" t="s">
         <v>6</v>
       </c>
       <c r="AM6" s="3"/>
-      <c r="AN6" s="51" t="s">
+      <c r="AN6" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="AS6" s="50"/>
+      <c r="AS6" s="45"/>
       <c r="AT6" s="3" t="s">
         <v>6</v>
       </c>
       <c r="AU6" s="3"/>
-      <c r="AV6" s="51" t="s">
+      <c r="AV6" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="BA6" s="50"/>
+      <c r="BA6" s="45"/>
       <c r="BB6" s="3" t="s">
         <v>6</v>
       </c>
       <c r="BC6" s="3"/>
-      <c r="BD6" s="51" t="s">
+      <c r="BD6" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="BI6" s="50"/>
+      <c r="BI6" s="45"/>
       <c r="BJ6" s="3" t="s">
         <v>6</v>
       </c>
       <c r="BK6" s="3"/>
-      <c r="BL6" s="51" t="s">
+      <c r="BL6" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="BQ6" s="50"/>
+      <c r="BQ6" s="45"/>
       <c r="BR6" s="3" t="s">
         <v>6</v>
       </c>
       <c r="BS6" s="3"/>
-      <c r="BT6" s="51" t="s">
+      <c r="BT6" s="46" t="s">
         <v>7</v>
       </c>
       <c r="BY6" s="3"/>
@@ -2687,54 +2737,54 @@
       </c>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
-      <c r="P7" s="50"/>
+      <c r="P7" s="45"/>
       <c r="Q7" s="3" t="s">
         <v>49</v>
       </c>
       <c r="R7" s="3"/>
-      <c r="S7" s="51"/>
-      <c r="W7" s="50"/>
+      <c r="S7" s="46"/>
+      <c r="W7" s="45"/>
       <c r="X7" s="3" t="s">
         <v>49</v>
       </c>
       <c r="Y7" s="3"/>
-      <c r="Z7" s="51"/>
-      <c r="AD7" s="50"/>
+      <c r="Z7" s="46"/>
+      <c r="AD7" s="45"/>
       <c r="AE7" s="3" t="s">
         <v>49</v>
       </c>
       <c r="AF7" s="3"/>
-      <c r="AG7" s="51"/>
-      <c r="AK7" s="50"/>
+      <c r="AG7" s="46"/>
+      <c r="AK7" s="45"/>
       <c r="AL7" s="3" t="s">
         <v>49</v>
       </c>
       <c r="AM7" s="3"/>
-      <c r="AN7" s="51"/>
-      <c r="AS7" s="50"/>
+      <c r="AN7" s="46"/>
+      <c r="AS7" s="45"/>
       <c r="AT7" s="3" t="s">
         <v>49</v>
       </c>
       <c r="AU7" s="3"/>
-      <c r="AV7" s="51"/>
-      <c r="BA7" s="50"/>
+      <c r="AV7" s="46"/>
+      <c r="BA7" s="45"/>
       <c r="BB7" s="3" t="s">
         <v>49</v>
       </c>
       <c r="BC7" s="3"/>
-      <c r="BD7" s="51"/>
-      <c r="BI7" s="50"/>
+      <c r="BD7" s="46"/>
+      <c r="BI7" s="45"/>
       <c r="BJ7" s="3" t="s">
         <v>49</v>
       </c>
       <c r="BK7" s="3"/>
-      <c r="BL7" s="51"/>
-      <c r="BQ7" s="50"/>
+      <c r="BL7" s="46"/>
+      <c r="BQ7" s="45"/>
       <c r="BR7" s="3" t="s">
         <v>49</v>
       </c>
       <c r="BS7" s="3"/>
-      <c r="BT7" s="51"/>
+      <c r="BT7" s="46"/>
       <c r="BY7" s="3"/>
       <c r="BZ7" s="3" t="s">
         <v>49</v>
@@ -2749,54 +2799,54 @@
       </c>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
-      <c r="P8" s="50"/>
+      <c r="P8" s="45"/>
       <c r="Q8" s="3" t="s">
         <v>13</v>
       </c>
       <c r="R8" s="3"/>
-      <c r="S8" s="51"/>
-      <c r="W8" s="50"/>
+      <c r="S8" s="46"/>
+      <c r="W8" s="45"/>
       <c r="X8" s="3" t="s">
         <v>13</v>
       </c>
       <c r="Y8" s="3"/>
-      <c r="Z8" s="51"/>
-      <c r="AD8" s="50"/>
+      <c r="Z8" s="46"/>
+      <c r="AD8" s="45"/>
       <c r="AE8" s="3" t="s">
         <v>13</v>
       </c>
       <c r="AF8" s="3"/>
-      <c r="AG8" s="51"/>
-      <c r="AK8" s="50"/>
+      <c r="AG8" s="46"/>
+      <c r="AK8" s="45"/>
       <c r="AL8" s="3" t="s">
         <v>13</v>
       </c>
       <c r="AM8" s="3"/>
-      <c r="AN8" s="51"/>
-      <c r="AS8" s="50"/>
+      <c r="AN8" s="46"/>
+      <c r="AS8" s="45"/>
       <c r="AT8" s="3" t="s">
         <v>13</v>
       </c>
       <c r="AU8" s="3"/>
-      <c r="AV8" s="51"/>
-      <c r="BA8" s="50"/>
+      <c r="AV8" s="46"/>
+      <c r="BA8" s="45"/>
       <c r="BB8" s="3" t="s">
         <v>13</v>
       </c>
       <c r="BC8" s="3"/>
-      <c r="BD8" s="51"/>
-      <c r="BI8" s="50"/>
+      <c r="BD8" s="46"/>
+      <c r="BI8" s="45"/>
       <c r="BJ8" s="3" t="s">
         <v>13</v>
       </c>
       <c r="BK8" s="3"/>
-      <c r="BL8" s="51"/>
-      <c r="BQ8" s="50"/>
+      <c r="BL8" s="46"/>
+      <c r="BQ8" s="45"/>
       <c r="BR8" s="3" t="s">
         <v>13</v>
       </c>
       <c r="BS8" s="3"/>
-      <c r="BT8" s="51"/>
+      <c r="BT8" s="46"/>
       <c r="BY8" s="3"/>
       <c r="BZ8" s="3" t="s">
         <v>13</v>
@@ -2805,103 +2855,103 @@
       <c r="CB8" s="3"/>
     </row>
     <row r="9" spans="2:80" x14ac:dyDescent="0.25">
-      <c r="I9" s="54" t="s">
+      <c r="I9" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="J9" s="54" t="s">
+      <c r="J9" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="K9" s="54">
+      <c r="K9" s="47">
         <v>0</v>
       </c>
       <c r="L9" s="3"/>
-      <c r="P9" s="64" t="s">
+      <c r="P9" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="Q9" s="54" t="s">
+      <c r="Q9" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="R9" s="54">
-        <v>0</v>
-      </c>
-      <c r="S9" s="51"/>
-      <c r="W9" s="64" t="s">
+      <c r="R9" s="47">
+        <v>0</v>
+      </c>
+      <c r="S9" s="46"/>
+      <c r="W9" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="X9" s="54" t="s">
+      <c r="X9" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="Y9" s="54">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="51"/>
-      <c r="AD9" s="64" t="s">
+      <c r="Y9" s="47">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="46"/>
+      <c r="AD9" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="AE9" s="54" t="s">
+      <c r="AE9" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="AF9" s="54">
-        <v>0</v>
-      </c>
-      <c r="AG9" s="51"/>
-      <c r="AK9" s="64" t="s">
+      <c r="AF9" s="47">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="46"/>
+      <c r="AK9" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="AL9" s="54" t="s">
+      <c r="AL9" s="47" t="s">
         <v>9</v>
       </c>
       <c r="AM9" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="AN9" s="51"/>
-      <c r="AS9" s="64" t="s">
+      <c r="AN9" s="46"/>
+      <c r="AS9" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="AT9" s="54" t="s">
+      <c r="AT9" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="AU9" s="54">
+      <c r="AU9" s="47">
         <v>1</v>
       </c>
-      <c r="AV9" s="51"/>
-      <c r="BA9" s="64" t="s">
+      <c r="AV9" s="46"/>
+      <c r="BA9" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="BB9" s="54" t="s">
+      <c r="BB9" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="BC9" s="54">
+      <c r="BC9" s="47">
         <v>1</v>
       </c>
-      <c r="BD9" s="51"/>
-      <c r="BI9" s="64" t="s">
+      <c r="BD9" s="46"/>
+      <c r="BI9" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="BJ9" s="54" t="s">
+      <c r="BJ9" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="BK9" s="54">
+      <c r="BK9" s="47">
         <v>1</v>
       </c>
-      <c r="BL9" s="51"/>
-      <c r="BQ9" s="64" t="s">
+      <c r="BL9" s="46"/>
+      <c r="BQ9" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="BR9" s="54" t="s">
+      <c r="BR9" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="BS9" s="54">
+      <c r="BS9" s="47">
         <v>1</v>
       </c>
-      <c r="BT9" s="51"/>
-      <c r="BY9" s="54" t="s">
+      <c r="BT9" s="46"/>
+      <c r="BY9" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="BZ9" s="54" t="s">
+      <c r="BZ9" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="CA9" s="54">
+      <c r="CA9" s="47">
         <v>1</v>
       </c>
       <c r="CB9" s="3"/>
@@ -2910,85 +2960,85 @@
       <c r="I10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J10" s="36" t="s">
+      <c r="J10" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="K10" s="36"/>
-      <c r="L10" s="36"/>
-      <c r="P10" s="47" t="s">
+      <c r="K10" s="72"/>
+      <c r="L10" s="72"/>
+      <c r="P10" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="Q10" s="52" t="s">
+      <c r="Q10" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="R10" s="52"/>
-      <c r="S10" s="53"/>
-      <c r="W10" s="47" t="s">
+      <c r="R10" s="79"/>
+      <c r="S10" s="80"/>
+      <c r="W10" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="X10" s="52" t="s">
+      <c r="X10" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="Y10" s="52"/>
-      <c r="Z10" s="53"/>
-      <c r="AD10" s="47" t="s">
+      <c r="Y10" s="79"/>
+      <c r="Z10" s="80"/>
+      <c r="AD10" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="AE10" s="52" t="s">
+      <c r="AE10" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="AF10" s="52"/>
-      <c r="AG10" s="53"/>
-      <c r="AK10" s="47" t="s">
+      <c r="AF10" s="79"/>
+      <c r="AG10" s="80"/>
+      <c r="AK10" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="AL10" s="52" t="s">
+      <c r="AL10" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="AM10" s="52"/>
-      <c r="AN10" s="53"/>
-      <c r="AS10" s="56" t="s">
+      <c r="AM10" s="79"/>
+      <c r="AN10" s="80"/>
+      <c r="AS10" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="AT10" s="59" t="s">
+      <c r="AT10" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="AU10" s="59"/>
-      <c r="AV10" s="60"/>
-      <c r="BA10" s="56" t="s">
+      <c r="AU10" s="76"/>
+      <c r="AV10" s="77"/>
+      <c r="BA10" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="BB10" s="59" t="s">
+      <c r="BB10" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="BC10" s="59"/>
-      <c r="BD10" s="60"/>
-      <c r="BI10" s="56" t="s">
+      <c r="BC10" s="76"/>
+      <c r="BD10" s="77"/>
+      <c r="BI10" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="BJ10" s="59" t="s">
+      <c r="BJ10" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="BK10" s="59"/>
-      <c r="BL10" s="60"/>
-      <c r="BQ10" s="56" t="s">
+      <c r="BK10" s="76"/>
+      <c r="BL10" s="77"/>
+      <c r="BQ10" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="BR10" s="59" t="s">
+      <c r="BR10" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="BS10" s="59"/>
-      <c r="BT10" s="60"/>
+      <c r="BS10" s="76"/>
+      <c r="BT10" s="77"/>
       <c r="BY10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="BZ10" s="62" t="s">
+      <c r="BZ10" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="CA10" s="80">
-        <v>0</v>
-      </c>
-      <c r="CB10" s="62"/>
+      <c r="CA10" s="67">
+        <v>0</v>
+      </c>
+      <c r="CB10" s="52"/>
     </row>
     <row r="11" spans="2:80" x14ac:dyDescent="0.25">
       <c r="P11" s="12" t="s">
@@ -3001,14 +3051,14 @@
       <c r="S11" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="W11" s="44" t="s">
+      <c r="W11" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="X11" s="45" t="s">
+      <c r="X11" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="Y11" s="45"/>
-      <c r="Z11" s="46" t="s">
+      <c r="Y11" s="40"/>
+      <c r="Z11" s="41" t="s">
         <v>12</v>
       </c>
       <c r="AD11" s="12" t="s">
@@ -3021,57 +3071,57 @@
       <c r="AG11" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="AK11" s="44" t="s">
+      <c r="AK11" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="AL11" s="45" t="s">
+      <c r="AL11" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="AM11" s="45"/>
-      <c r="AN11" s="46" t="s">
+      <c r="AM11" s="40"/>
+      <c r="AN11" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="AS11" s="44" t="s">
+      <c r="AS11" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="AT11" s="45" t="s">
+      <c r="AT11" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="AU11" s="45"/>
-      <c r="AV11" s="46" t="s">
+      <c r="AU11" s="40"/>
+      <c r="AV11" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="BA11" s="44" t="s">
+      <c r="BA11" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="BB11" s="45" t="s">
+      <c r="BB11" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="BC11" s="45"/>
-      <c r="BD11" s="46" t="s">
+      <c r="BC11" s="40"/>
+      <c r="BD11" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="BI11" s="44" t="s">
+      <c r="BI11" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="BJ11" s="45" t="s">
+      <c r="BJ11" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="BK11" s="45"/>
-      <c r="BL11" s="46" t="s">
+      <c r="BK11" s="40"/>
+      <c r="BL11" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="BQ11" s="44" t="s">
+      <c r="BQ11" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="BR11" s="45" t="s">
+      <c r="BR11" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="BS11" s="45"/>
-      <c r="BT11" s="46" t="s">
+      <c r="BS11" s="40"/>
+      <c r="BT11" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="BX11" s="67"/>
+      <c r="BX11" s="57"/>
       <c r="BY11" s="2"/>
       <c r="BZ11" s="2"/>
       <c r="CA11" s="2"/>
@@ -3086,12 +3136,12 @@
       <c r="S12" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="W12" s="50"/>
+      <c r="W12" s="45"/>
       <c r="X12" s="3" t="s">
         <v>6</v>
       </c>
       <c r="Y12" s="3"/>
-      <c r="Z12" s="51" t="s">
+      <c r="Z12" s="46" t="s">
         <v>7</v>
       </c>
       <c r="AD12" s="3"/>
@@ -3102,47 +3152,47 @@
       <c r="AG12" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="AK12" s="50"/>
+      <c r="AK12" s="45"/>
       <c r="AL12" s="3" t="s">
         <v>6</v>
       </c>
       <c r="AM12" s="3"/>
-      <c r="AN12" s="51" t="s">
+      <c r="AN12" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="AS12" s="50"/>
+      <c r="AS12" s="45"/>
       <c r="AT12" s="3" t="s">
         <v>6</v>
       </c>
       <c r="AU12" s="3"/>
-      <c r="AV12" s="51" t="s">
+      <c r="AV12" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="BA12" s="50"/>
+      <c r="BA12" s="45"/>
       <c r="BB12" s="3" t="s">
         <v>6</v>
       </c>
       <c r="BC12" s="3"/>
-      <c r="BD12" s="51" t="s">
+      <c r="BD12" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="BI12" s="50"/>
+      <c r="BI12" s="45"/>
       <c r="BJ12" s="3" t="s">
         <v>6</v>
       </c>
       <c r="BK12" s="3"/>
-      <c r="BL12" s="51" t="s">
+      <c r="BL12" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="BQ12" s="50"/>
+      <c r="BQ12" s="45"/>
       <c r="BR12" s="3" t="s">
         <v>6</v>
       </c>
       <c r="BS12" s="3"/>
-      <c r="BT12" s="51" t="s">
+      <c r="BT12" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="BX12" s="67"/>
+      <c r="BX12" s="57"/>
       <c r="BY12" s="2"/>
       <c r="BZ12" s="2"/>
       <c r="CA12" s="2"/>
@@ -3155,49 +3205,49 @@
       </c>
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
-      <c r="W13" s="50"/>
+      <c r="W13" s="45"/>
       <c r="X13" s="3" t="s">
         <v>49</v>
       </c>
       <c r="Y13" s="3"/>
-      <c r="Z13" s="51"/>
+      <c r="Z13" s="46"/>
       <c r="AD13" s="3"/>
       <c r="AE13" s="3" t="s">
         <v>49</v>
       </c>
       <c r="AF13" s="3"/>
       <c r="AG13" s="3"/>
-      <c r="AK13" s="50"/>
+      <c r="AK13" s="45"/>
       <c r="AL13" s="3" t="s">
         <v>49</v>
       </c>
       <c r="AM13" s="3"/>
-      <c r="AN13" s="51"/>
-      <c r="AS13" s="50"/>
+      <c r="AN13" s="46"/>
+      <c r="AS13" s="45"/>
       <c r="AT13" s="3" t="s">
         <v>49</v>
       </c>
       <c r="AU13" s="3"/>
-      <c r="AV13" s="51"/>
-      <c r="BA13" s="50"/>
+      <c r="AV13" s="46"/>
+      <c r="BA13" s="45"/>
       <c r="BB13" s="3" t="s">
         <v>49</v>
       </c>
       <c r="BC13" s="3"/>
-      <c r="BD13" s="51"/>
-      <c r="BI13" s="50"/>
+      <c r="BD13" s="46"/>
+      <c r="BI13" s="45"/>
       <c r="BJ13" s="3" t="s">
         <v>49</v>
       </c>
       <c r="BK13" s="3"/>
-      <c r="BL13" s="51"/>
-      <c r="BQ13" s="50"/>
+      <c r="BL13" s="46"/>
+      <c r="BQ13" s="45"/>
       <c r="BR13" s="3" t="s">
         <v>49</v>
       </c>
       <c r="BS13" s="3"/>
-      <c r="BT13" s="51"/>
-      <c r="BX13" s="67"/>
+      <c r="BT13" s="46"/>
+      <c r="BX13" s="57"/>
       <c r="BY13" s="2"/>
       <c r="BZ13" s="2"/>
       <c r="CA13" s="2"/>
@@ -3212,12 +3262,12 @@
       <c r="S14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="W14" s="50"/>
+      <c r="W14" s="45"/>
       <c r="X14" s="3" t="s">
         <v>13</v>
       </c>
       <c r="Y14" s="3"/>
-      <c r="Z14" s="51" t="s">
+      <c r="Z14" s="46" t="s">
         <v>11</v>
       </c>
       <c r="AD14" s="3"/>
@@ -3228,51 +3278,51 @@
       <c r="AG14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="AK14" s="50"/>
+      <c r="AK14" s="45"/>
       <c r="AL14" s="3" t="s">
         <v>13</v>
       </c>
       <c r="AM14" s="3"/>
-      <c r="AN14" s="51" t="s">
+      <c r="AN14" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="AS14" s="50"/>
+      <c r="AS14" s="45"/>
       <c r="AT14" s="3" t="s">
         <v>13</v>
       </c>
       <c r="AU14" s="3"/>
-      <c r="AV14" s="51" t="s">
+      <c r="AV14" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="BA14" s="50"/>
+      <c r="BA14" s="45"/>
       <c r="BB14" s="3" t="s">
         <v>13</v>
       </c>
       <c r="BC14" s="3"/>
-      <c r="BD14" s="51" t="s">
+      <c r="BD14" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="BI14" s="50"/>
+      <c r="BI14" s="45"/>
       <c r="BJ14" s="3" t="s">
         <v>13</v>
       </c>
       <c r="BK14" s="3"/>
-      <c r="BL14" s="51" t="s">
+      <c r="BL14" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="BQ14" s="50"/>
+      <c r="BQ14" s="45"/>
       <c r="BR14" s="3" t="s">
         <v>13</v>
       </c>
       <c r="BS14" s="3"/>
-      <c r="BT14" s="51" t="s">
+      <c r="BT14" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="BX14" s="67"/>
-      <c r="BY14" s="61"/>
-      <c r="BZ14" s="61"/>
-      <c r="CA14" s="61"/>
-      <c r="CB14" s="61"/>
+      <c r="BX14" s="57"/>
+      <c r="BY14" s="51"/>
+      <c r="BZ14" s="51"/>
+      <c r="CA14" s="51"/>
+      <c r="CB14" s="51"/>
     </row>
     <row r="15" spans="2:80" x14ac:dyDescent="0.25">
       <c r="P15" s="3" t="s">
@@ -3285,7 +3335,7 @@
         <v>0</v>
       </c>
       <c r="S15" s="3"/>
-      <c r="W15" s="50" t="s">
+      <c r="W15" s="45" t="s">
         <v>24</v>
       </c>
       <c r="X15" s="3" t="s">
@@ -3294,7 +3344,7 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-      <c r="Z15" s="51"/>
+      <c r="Z15" s="46"/>
       <c r="AD15" s="3" t="s">
         <v>24</v>
       </c>
@@ -3305,7 +3355,7 @@
         <v>0</v>
       </c>
       <c r="AG15" s="3"/>
-      <c r="AK15" s="50" t="s">
+      <c r="AK15" s="45" t="s">
         <v>24</v>
       </c>
       <c r="AL15" s="3" t="s">
@@ -3314,8 +3364,8 @@
       <c r="AM15" s="3">
         <v>0</v>
       </c>
-      <c r="AN15" s="51"/>
-      <c r="AS15" s="50" t="s">
+      <c r="AN15" s="46"/>
+      <c r="AS15" s="45" t="s">
         <v>24</v>
       </c>
       <c r="AT15" s="3" t="s">
@@ -3324,8 +3374,8 @@
       <c r="AU15" s="3">
         <v>0</v>
       </c>
-      <c r="AV15" s="51"/>
-      <c r="BA15" s="50" t="s">
+      <c r="AV15" s="46"/>
+      <c r="BA15" s="45" t="s">
         <v>24</v>
       </c>
       <c r="BB15" s="3" t="s">
@@ -3334,8 +3384,8 @@
       <c r="BC15" s="3">
         <v>0</v>
       </c>
-      <c r="BD15" s="51"/>
-      <c r="BI15" s="50" t="s">
+      <c r="BD15" s="46"/>
+      <c r="BI15" s="45" t="s">
         <v>24</v>
       </c>
       <c r="BJ15" s="3" t="s">
@@ -3344,8 +3394,8 @@
       <c r="BK15" s="3">
         <v>0</v>
       </c>
-      <c r="BL15" s="51"/>
-      <c r="BQ15" s="50" t="s">
+      <c r="BL15" s="46"/>
+      <c r="BQ15" s="45" t="s">
         <v>24</v>
       </c>
       <c r="BR15" s="3" t="s">
@@ -3354,117 +3404,117 @@
       <c r="BS15" s="3">
         <v>0</v>
       </c>
-      <c r="BT15" s="51"/>
-      <c r="BX15" s="67"/>
-      <c r="BY15" s="61"/>
-      <c r="BZ15" s="61"/>
-      <c r="CA15" s="61"/>
-      <c r="CB15" s="61"/>
+      <c r="BT15" s="46"/>
+      <c r="BX15" s="57"/>
+      <c r="BY15" s="51"/>
+      <c r="BZ15" s="51"/>
+      <c r="CA15" s="51"/>
+      <c r="CB15" s="51"/>
     </row>
     <row r="16" spans="2:80" x14ac:dyDescent="0.25">
-      <c r="P16" s="54" t="s">
+      <c r="P16" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="Q16" s="54" t="s">
+      <c r="Q16" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="R16" s="54">
+      <c r="R16" s="47">
         <v>0</v>
       </c>
       <c r="S16" s="3"/>
-      <c r="W16" s="64" t="s">
+      <c r="W16" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="X16" s="54" t="s">
+      <c r="X16" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="Y16" s="54">
-        <v>0</v>
-      </c>
-      <c r="Z16" s="51"/>
-      <c r="AD16" s="54" t="s">
+      <c r="Y16" s="47">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="46"/>
+      <c r="AD16" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="AE16" s="54" t="s">
+      <c r="AE16" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="AF16" s="54">
+      <c r="AF16" s="47">
         <v>0</v>
       </c>
       <c r="AG16" s="3"/>
-      <c r="AK16" s="64" t="s">
+      <c r="AK16" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="AL16" s="54" t="s">
+      <c r="AL16" s="47" t="s">
         <v>21</v>
       </c>
       <c r="AM16" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="AN16" s="51"/>
-      <c r="AS16" s="64" t="s">
+      <c r="AN16" s="46"/>
+      <c r="AS16" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="AT16" s="54" t="s">
+      <c r="AT16" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="AU16" s="54">
+      <c r="AU16" s="47">
         <v>1</v>
       </c>
-      <c r="AV16" s="51"/>
-      <c r="BA16" s="64" t="s">
+      <c r="AV16" s="46"/>
+      <c r="BA16" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="BB16" s="54" t="s">
+      <c r="BB16" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="BC16" s="54">
+      <c r="BC16" s="47">
         <v>1</v>
       </c>
-      <c r="BD16" s="51"/>
-      <c r="BI16" s="64" t="s">
+      <c r="BD16" s="46"/>
+      <c r="BI16" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="BJ16" s="54" t="s">
+      <c r="BJ16" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="BK16" s="54">
+      <c r="BK16" s="47">
         <v>1</v>
       </c>
-      <c r="BL16" s="51"/>
-      <c r="BQ16" s="64" t="s">
+      <c r="BL16" s="46"/>
+      <c r="BQ16" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="BR16" s="54" t="s">
+      <c r="BR16" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="BS16" s="54">
+      <c r="BS16" s="47">
         <v>1</v>
       </c>
-      <c r="BT16" s="51"/>
-      <c r="BX16" s="67"/>
-      <c r="BY16" s="61"/>
-      <c r="BZ16" s="61"/>
-      <c r="CA16" s="61"/>
-      <c r="CB16" s="61"/>
+      <c r="BT16" s="46"/>
+      <c r="BX16" s="57"/>
+      <c r="BY16" s="51"/>
+      <c r="BZ16" s="51"/>
+      <c r="CA16" s="51"/>
+      <c r="CB16" s="51"/>
     </row>
     <row r="17" spans="16:80" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="P17" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="Q17" s="36" t="s">
+      <c r="Q17" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="R17" s="36"/>
-      <c r="S17" s="36"/>
-      <c r="W17" s="47" t="s">
+      <c r="R17" s="72"/>
+      <c r="S17" s="72"/>
+      <c r="W17" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="X17" s="52" t="s">
+      <c r="X17" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="Y17" s="52"/>
-      <c r="Z17" s="53"/>
+      <c r="Y17" s="79"/>
+      <c r="Z17" s="80"/>
       <c r="AD17" s="3" t="s">
         <v>18</v>
       </c>
@@ -3474,18 +3524,18 @@
       <c r="AF17" s="3">
         <v>0</v>
       </c>
-      <c r="AG17" s="62"/>
-      <c r="AK17" s="47" t="s">
+      <c r="AG17" s="52"/>
+      <c r="AK17" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="AL17" s="48" t="s">
+      <c r="AL17" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="AM17" s="48">
-        <v>0</v>
-      </c>
-      <c r="AN17" s="55"/>
-      <c r="AS17" s="50" t="s">
+      <c r="AM17" s="43">
+        <v>0</v>
+      </c>
+      <c r="AN17" s="48"/>
+      <c r="AS17" s="45" t="s">
         <v>18</v>
       </c>
       <c r="AT17" s="3" t="s">
@@ -3494,8 +3544,8 @@
       <c r="AU17" s="3">
         <v>0</v>
       </c>
-      <c r="AV17" s="65"/>
-      <c r="BA17" s="50" t="s">
+      <c r="AV17" s="55"/>
+      <c r="BA17" s="45" t="s">
         <v>18</v>
       </c>
       <c r="BB17" s="3" t="s">
@@ -3504,8 +3554,8 @@
       <c r="BC17" s="3">
         <v>0</v>
       </c>
-      <c r="BD17" s="65"/>
-      <c r="BI17" s="50" t="s">
+      <c r="BD17" s="55"/>
+      <c r="BI17" s="45" t="s">
         <v>18</v>
       </c>
       <c r="BJ17" s="3" t="s">
@@ -3514,8 +3564,8 @@
       <c r="BK17" s="3">
         <v>0</v>
       </c>
-      <c r="BL17" s="65"/>
-      <c r="BQ17" s="50" t="s">
+      <c r="BL17" s="55"/>
+      <c r="BQ17" s="45" t="s">
         <v>18</v>
       </c>
       <c r="BR17" s="3" t="s">
@@ -3524,12 +3574,12 @@
       <c r="BS17" s="3">
         <v>0</v>
       </c>
-      <c r="BT17" s="65"/>
-      <c r="BX17" s="67"/>
-      <c r="BY17" s="61"/>
-      <c r="BZ17" s="61"/>
-      <c r="CA17" s="61"/>
-      <c r="CB17" s="61"/>
+      <c r="BT17" s="55"/>
+      <c r="BX17" s="57"/>
+      <c r="BY17" s="51"/>
+      <c r="BZ17" s="51"/>
+      <c r="CA17" s="51"/>
+      <c r="CB17" s="51"/>
     </row>
     <row r="18" spans="16:80" x14ac:dyDescent="0.25">
       <c r="W18" s="12" t="s">
@@ -3562,60 +3612,60 @@
       <c r="AR18" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="AS18" s="50" t="s">
+      <c r="AS18" s="45" t="s">
         <v>54</v>
       </c>
       <c r="AT18" s="3" t="s">
         <v>5</v>
       </c>
       <c r="AU18" s="3"/>
-      <c r="AV18" s="51" t="s">
+      <c r="AV18" s="46" t="s">
         <v>14</v>
       </c>
       <c r="AZ18" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="BA18" s="50" t="s">
+      <c r="BA18" s="45" t="s">
         <v>54</v>
       </c>
       <c r="BB18" s="3" t="s">
         <v>5</v>
       </c>
       <c r="BC18" s="3"/>
-      <c r="BD18" s="51" t="s">
+      <c r="BD18" s="46" t="s">
         <v>14</v>
       </c>
       <c r="BH18" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="BI18" s="50" t="s">
+      <c r="BI18" s="45" t="s">
         <v>54</v>
       </c>
       <c r="BJ18" s="3" t="s">
         <v>5</v>
       </c>
       <c r="BK18" s="3"/>
-      <c r="BL18" s="51" t="s">
+      <c r="BL18" s="46" t="s">
         <v>14</v>
       </c>
       <c r="BP18" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="BQ18" s="50" t="s">
+      <c r="BQ18" s="45" t="s">
         <v>54</v>
       </c>
       <c r="BR18" s="3" t="s">
         <v>5</v>
       </c>
       <c r="BS18" s="3"/>
-      <c r="BT18" s="51" t="s">
+      <c r="BT18" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="BX18" s="68"/>
-      <c r="BY18" s="61"/>
-      <c r="BZ18" s="61"/>
-      <c r="CA18" s="61"/>
-      <c r="CB18" s="61"/>
+      <c r="BX18" s="58"/>
+      <c r="BY18" s="51"/>
+      <c r="BZ18" s="51"/>
+      <c r="CA18" s="51"/>
+      <c r="CB18" s="51"/>
     </row>
     <row r="19" spans="16:80" x14ac:dyDescent="0.25">
       <c r="W19" s="3"/>
@@ -3638,43 +3688,43 @@
       <c r="AN19" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="AS19" s="50"/>
+      <c r="AS19" s="45"/>
       <c r="AT19" s="3" t="s">
         <v>6</v>
       </c>
       <c r="AU19" s="3"/>
-      <c r="AV19" s="51" t="s">
+      <c r="AV19" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="BA19" s="50"/>
+      <c r="BA19" s="45"/>
       <c r="BB19" s="3" t="s">
         <v>6</v>
       </c>
       <c r="BC19" s="3"/>
-      <c r="BD19" s="51" t="s">
+      <c r="BD19" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="BI19" s="50"/>
+      <c r="BI19" s="45"/>
       <c r="BJ19" s="3" t="s">
         <v>6</v>
       </c>
       <c r="BK19" s="3"/>
-      <c r="BL19" s="51" t="s">
+      <c r="BL19" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="BQ19" s="50"/>
+      <c r="BQ19" s="45"/>
       <c r="BR19" s="3" t="s">
         <v>6</v>
       </c>
       <c r="BS19" s="3"/>
-      <c r="BT19" s="51" t="s">
+      <c r="BT19" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="BX19" s="67"/>
-      <c r="BY19" s="61"/>
-      <c r="BZ19" s="61"/>
-      <c r="CA19" s="61"/>
-      <c r="CB19" s="61"/>
+      <c r="BX19" s="57"/>
+      <c r="BY19" s="51"/>
+      <c r="BZ19" s="51"/>
+      <c r="CA19" s="51"/>
+      <c r="CB19" s="51"/>
     </row>
     <row r="20" spans="16:80" x14ac:dyDescent="0.25">
       <c r="W20" s="3"/>
@@ -3691,143 +3741,143 @@
       <c r="AL20" s="3"/>
       <c r="AM20" s="3"/>
       <c r="AN20" s="3"/>
-      <c r="AS20" s="50"/>
+      <c r="AS20" s="45"/>
       <c r="AT20" s="3"/>
       <c r="AU20" s="3"/>
-      <c r="AV20" s="51"/>
-      <c r="BA20" s="50"/>
+      <c r="AV20" s="46"/>
+      <c r="BA20" s="45"/>
       <c r="BB20" s="3"/>
       <c r="BC20" s="3"/>
-      <c r="BD20" s="51"/>
-      <c r="BI20" s="50"/>
+      <c r="BD20" s="46"/>
+      <c r="BI20" s="45"/>
       <c r="BJ20" s="3"/>
       <c r="BK20" s="3"/>
-      <c r="BL20" s="51"/>
-      <c r="BQ20" s="50"/>
+      <c r="BL20" s="46"/>
+      <c r="BQ20" s="45"/>
       <c r="BR20" s="3"/>
       <c r="BS20" s="3"/>
-      <c r="BT20" s="51"/>
-      <c r="BX20" s="67"/>
-      <c r="BY20" s="61"/>
-      <c r="BZ20" s="61"/>
-      <c r="CA20" s="61"/>
-      <c r="CB20" s="61"/>
+      <c r="BT20" s="46"/>
+      <c r="BX20" s="57"/>
+      <c r="BY20" s="51"/>
+      <c r="BZ20" s="51"/>
+      <c r="CA20" s="51"/>
+      <c r="CB20" s="51"/>
     </row>
     <row r="21" spans="16:80" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="W21" s="36" t="s">
+      <c r="W21" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="X21" s="36"/>
-      <c r="Y21" s="36"/>
-      <c r="Z21" s="36"/>
-      <c r="AD21" s="58"/>
-      <c r="AE21" s="58"/>
-      <c r="AF21" s="58"/>
-      <c r="AG21" s="58"/>
-      <c r="AK21" s="54" t="s">
+      <c r="X21" s="72"/>
+      <c r="Y21" s="72"/>
+      <c r="Z21" s="72"/>
+      <c r="AD21" s="78"/>
+      <c r="AE21" s="78"/>
+      <c r="AF21" s="78"/>
+      <c r="AG21" s="78"/>
+      <c r="AK21" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="AL21" s="54" t="s">
+      <c r="AL21" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="AM21" s="54">
+      <c r="AM21" s="47">
         <v>1</v>
       </c>
       <c r="AN21" s="3"/>
-      <c r="AS21" s="64" t="s">
+      <c r="AS21" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="AT21" s="54" t="s">
+      <c r="AT21" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="AU21" s="54">
+      <c r="AU21" s="47">
         <v>1</v>
       </c>
-      <c r="AV21" s="51"/>
-      <c r="BA21" s="64" t="s">
+      <c r="AV21" s="46"/>
+      <c r="BA21" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="BB21" s="54" t="s">
+      <c r="BB21" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="BC21" s="54">
+      <c r="BC21" s="47">
         <v>1</v>
       </c>
-      <c r="BD21" s="51"/>
-      <c r="BI21" s="64" t="s">
+      <c r="BD21" s="46"/>
+      <c r="BI21" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="BJ21" s="54" t="s">
+      <c r="BJ21" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="BK21" s="54">
+      <c r="BK21" s="47">
         <v>1</v>
       </c>
-      <c r="BL21" s="51"/>
-      <c r="BQ21" s="69" t="s">
+      <c r="BL21" s="46"/>
+      <c r="BQ21" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="BR21" s="70" t="s">
+      <c r="BR21" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="BS21" s="70">
+      <c r="BS21" s="60">
         <v>1</v>
       </c>
-      <c r="BT21" s="71"/>
-      <c r="BX21" s="67"/>
-      <c r="BY21" s="61"/>
-      <c r="BZ21" s="61"/>
-      <c r="CA21" s="61"/>
-      <c r="CB21" s="61"/>
+      <c r="BT21" s="61"/>
+      <c r="BX21" s="57"/>
+      <c r="BY21" s="51"/>
+      <c r="BZ21" s="51"/>
+      <c r="CA21" s="51"/>
+      <c r="CB21" s="51"/>
     </row>
     <row r="22" spans="16:80" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AK22" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AL22" s="36" t="s">
+      <c r="AL22" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="AM22" s="36"/>
-      <c r="AN22" s="36"/>
-      <c r="AS22" s="47" t="s">
+      <c r="AM22" s="72"/>
+      <c r="AN22" s="72"/>
+      <c r="AS22" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="AT22" s="52" t="s">
+      <c r="AT22" s="79" t="s">
         <v>30</v>
       </c>
-      <c r="AU22" s="52"/>
-      <c r="AV22" s="53"/>
-      <c r="BA22" s="47" t="s">
+      <c r="AU22" s="79"/>
+      <c r="AV22" s="80"/>
+      <c r="BA22" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="BB22" s="52" t="s">
+      <c r="BB22" s="79" t="s">
         <v>30</v>
       </c>
-      <c r="BC22" s="52"/>
-      <c r="BD22" s="53"/>
-      <c r="BI22" s="47" t="s">
+      <c r="BC22" s="79"/>
+      <c r="BD22" s="80"/>
+      <c r="BI22" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="BJ22" s="52" t="s">
+      <c r="BJ22" s="79" t="s">
         <v>30</v>
       </c>
-      <c r="BK22" s="52"/>
-      <c r="BL22" s="53"/>
-      <c r="BQ22" s="72" t="s">
+      <c r="BK22" s="79"/>
+      <c r="BL22" s="80"/>
+      <c r="BQ22" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="BR22" s="73" t="s">
+      <c r="BR22" s="63" t="s">
         <v>30</v>
       </c>
-      <c r="BS22" s="79">
-        <v>0</v>
-      </c>
-      <c r="BT22" s="74"/>
-      <c r="BX22" s="67"/>
-      <c r="BY22" s="61"/>
-      <c r="BZ22" s="61"/>
-      <c r="CA22" s="61"/>
-      <c r="CB22" s="61"/>
+      <c r="BS22" s="66">
+        <v>0</v>
+      </c>
+      <c r="BT22" s="64"/>
+      <c r="BX22" s="57"/>
+      <c r="BY22" s="51"/>
+      <c r="BZ22" s="51"/>
+      <c r="CA22" s="51"/>
+      <c r="CB22" s="51"/>
     </row>
     <row r="23" spans="16:80" x14ac:dyDescent="0.25">
       <c r="AS23" s="12" t="s">
@@ -3840,14 +3890,14 @@
       <c r="AV23" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="BA23" s="44" t="s">
+      <c r="BA23" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="BB23" s="45" t="s">
+      <c r="BB23" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="BC23" s="45"/>
-      <c r="BD23" s="46" t="s">
+      <c r="BC23" s="40"/>
+      <c r="BD23" s="41" t="s">
         <v>14</v>
       </c>
       <c r="BI23" s="12" t="s">
@@ -3860,16 +3910,16 @@
       <c r="BL23" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="BP23" s="67"/>
+      <c r="BP23" s="57"/>
       <c r="BQ23" s="2"/>
       <c r="BR23" s="2"/>
       <c r="BS23" s="2"/>
       <c r="BT23" s="2"/>
-      <c r="BX23" s="67"/>
-      <c r="BY23" s="67"/>
-      <c r="BZ23" s="67"/>
-      <c r="CA23" s="67"/>
-      <c r="CB23" s="67"/>
+      <c r="BX23" s="57"/>
+      <c r="BY23" s="57"/>
+      <c r="BZ23" s="57"/>
+      <c r="CA23" s="57"/>
+      <c r="CB23" s="57"/>
     </row>
     <row r="24" spans="16:80" x14ac:dyDescent="0.25">
       <c r="AS24" s="3"/>
@@ -3880,12 +3930,12 @@
       <c r="AV24" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="BA24" s="50"/>
+      <c r="BA24" s="45"/>
       <c r="BB24" s="3" t="s">
         <v>6</v>
       </c>
       <c r="BC24" s="3"/>
-      <c r="BD24" s="51" t="s">
+      <c r="BD24" s="46" t="s">
         <v>7</v>
       </c>
       <c r="BI24" s="3"/>
@@ -3896,7 +3946,7 @@
       <c r="BL24" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="BP24" s="67"/>
+      <c r="BP24" s="57"/>
       <c r="BQ24" s="2"/>
       <c r="BR24" s="2"/>
       <c r="BS24" s="2"/>
@@ -3906,8 +3956,8 @@
       <c r="AL25" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="AM25" s="63"/>
-      <c r="AN25" s="63"/>
+      <c r="AM25" s="53"/>
+      <c r="AN25" s="53"/>
       <c r="AS25" s="3"/>
       <c r="AT25" s="3" t="s">
         <v>13</v>
@@ -3916,12 +3966,12 @@
       <c r="AV25" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="BA25" s="50"/>
+      <c r="BA25" s="45"/>
       <c r="BB25" s="3" t="s">
         <v>13</v>
       </c>
       <c r="BC25" s="3"/>
-      <c r="BD25" s="51" t="s">
+      <c r="BD25" s="46" t="s">
         <v>29</v>
       </c>
       <c r="BI25" s="3"/>
@@ -3932,7 +3982,7 @@
       <c r="BL25" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="BP25" s="67"/>
+      <c r="BP25" s="57"/>
       <c r="BQ25" s="2"/>
       <c r="BR25" s="2"/>
       <c r="BS25" s="2"/>
@@ -3949,7 +3999,7 @@
         <v>0</v>
       </c>
       <c r="AV26" s="3"/>
-      <c r="BA26" s="50" t="s">
+      <c r="BA26" s="45" t="s">
         <v>55</v>
       </c>
       <c r="BB26" s="3" t="s">
@@ -3958,7 +4008,7 @@
       <c r="BC26" s="3">
         <v>0</v>
       </c>
-      <c r="BD26" s="51"/>
+      <c r="BD26" s="46"/>
       <c r="BI26" s="3" t="s">
         <v>55</v>
       </c>
@@ -3969,79 +4019,79 @@
         <v>0</v>
       </c>
       <c r="BL26" s="3"/>
-      <c r="BP26" s="67"/>
-      <c r="BQ26" s="61"/>
-      <c r="BR26" s="61"/>
-      <c r="BS26" s="61"/>
+      <c r="BP26" s="57"/>
+      <c r="BQ26" s="51"/>
+      <c r="BR26" s="51"/>
+      <c r="BS26" s="51"/>
       <c r="BT26" s="2"/>
     </row>
     <row r="27" spans="16:80" x14ac:dyDescent="0.25">
-      <c r="AS27" s="54" t="s">
+      <c r="AS27" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="AT27" s="54" t="s">
+      <c r="AT27" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="AU27" s="54">
+      <c r="AU27" s="47">
         <v>1</v>
       </c>
       <c r="AV27" s="3"/>
-      <c r="BA27" s="64" t="s">
+      <c r="BA27" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="BB27" s="54" t="s">
+      <c r="BB27" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="BC27" s="54">
+      <c r="BC27" s="47">
         <v>1</v>
       </c>
-      <c r="BD27" s="51"/>
-      <c r="BI27" s="54" t="s">
+      <c r="BD27" s="46"/>
+      <c r="BI27" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="BJ27" s="54" t="s">
+      <c r="BJ27" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="BK27" s="54">
+      <c r="BK27" s="47">
         <v>1</v>
       </c>
       <c r="BL27" s="3"/>
-      <c r="BP27" s="67"/>
-      <c r="BQ27" s="61"/>
-      <c r="BR27" s="61"/>
-      <c r="BS27" s="61"/>
+      <c r="BP27" s="57"/>
+      <c r="BQ27" s="51"/>
+      <c r="BR27" s="51"/>
+      <c r="BS27" s="51"/>
       <c r="BT27" s="2"/>
     </row>
     <row r="28" spans="16:80" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AS28" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AT28" s="36" t="s">
+      <c r="AT28" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="AU28" s="36"/>
-      <c r="AV28" s="36"/>
-      <c r="BA28" s="47" t="s">
+      <c r="AU28" s="72"/>
+      <c r="AV28" s="72"/>
+      <c r="BA28" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="BB28" s="52" t="s">
+      <c r="BB28" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="BC28" s="52"/>
-      <c r="BD28" s="53"/>
+      <c r="BC28" s="79"/>
+      <c r="BD28" s="80"/>
       <c r="BI28" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="BJ28" s="36" t="s">
+      <c r="BJ28" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="BK28" s="36"/>
-      <c r="BL28" s="36"/>
-      <c r="BP28" s="67"/>
+      <c r="BK28" s="72"/>
+      <c r="BL28" s="72"/>
+      <c r="BP28" s="57"/>
       <c r="BQ28" s="2"/>
-      <c r="BR28" s="58"/>
-      <c r="BS28" s="58"/>
-      <c r="BT28" s="58"/>
+      <c r="BR28" s="78"/>
+      <c r="BS28" s="78"/>
+      <c r="BT28" s="78"/>
     </row>
     <row r="29" spans="16:80" x14ac:dyDescent="0.25">
       <c r="BA29" s="12" t="s">
@@ -4067,7 +4117,7 @@
       <c r="BL29" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="BP29" s="68"/>
+      <c r="BP29" s="58"/>
       <c r="BQ29" s="2"/>
       <c r="BR29" s="2"/>
       <c r="BS29" s="2"/>
@@ -4090,7 +4140,7 @@
       <c r="BL30" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="BP30" s="67"/>
+      <c r="BP30" s="57"/>
       <c r="BQ30" s="2"/>
       <c r="BR30" s="2"/>
       <c r="BS30" s="2"/>
@@ -4113,7 +4163,7 @@
       <c r="BL31" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="BP31" s="67"/>
+      <c r="BP31" s="57"/>
       <c r="BQ31" s="2"/>
       <c r="BR31" s="2"/>
       <c r="BS31" s="2"/>
@@ -4130,40 +4180,38 @@
       <c r="BD32" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="BI32" s="76" t="s">
+      <c r="BI32" s="73" t="s">
         <v>37</v>
       </c>
-      <c r="BJ32" s="77"/>
-      <c r="BK32" s="77"/>
-      <c r="BL32" s="78"/>
-      <c r="BP32" s="67"/>
-      <c r="BQ32" s="58"/>
-      <c r="BR32" s="58"/>
-      <c r="BS32" s="58"/>
-      <c r="BT32" s="58"/>
+      <c r="BJ32" s="74"/>
+      <c r="BK32" s="74"/>
+      <c r="BL32" s="75"/>
+      <c r="BP32" s="57"/>
+      <c r="BQ32" s="78"/>
+      <c r="BR32" s="78"/>
+      <c r="BS32" s="78"/>
+      <c r="BT32" s="78"/>
     </row>
     <row r="33" spans="53:64" x14ac:dyDescent="0.25">
-      <c r="BA33" s="36" t="s">
+      <c r="BA33" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="BB33" s="36"/>
-      <c r="BC33" s="36"/>
-      <c r="BD33" s="36"/>
-      <c r="BI33" s="66"/>
-      <c r="BJ33" s="66"/>
-      <c r="BK33" s="66"/>
-      <c r="BL33" s="66"/>
+      <c r="BB33" s="72"/>
+      <c r="BC33" s="72"/>
+      <c r="BD33" s="72"/>
+      <c r="BI33" s="56"/>
+      <c r="BJ33" s="56"/>
+      <c r="BK33" s="56"/>
+      <c r="BL33" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="BI32:BL32"/>
-    <mergeCell ref="BR10:BT10"/>
-    <mergeCell ref="BR28:BT28"/>
-    <mergeCell ref="BQ32:BT32"/>
-    <mergeCell ref="AT28:AV28"/>
-    <mergeCell ref="BB10:BD10"/>
-    <mergeCell ref="BB22:BD22"/>
-    <mergeCell ref="BB28:BD28"/>
+    <mergeCell ref="W21:Z21"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="Q10:S10"/>
+    <mergeCell ref="Q17:S17"/>
+    <mergeCell ref="X10:Z10"/>
+    <mergeCell ref="X17:Z17"/>
     <mergeCell ref="BA33:BD33"/>
     <mergeCell ref="BJ10:BL10"/>
     <mergeCell ref="BJ22:BL22"/>
@@ -4174,12 +4222,14 @@
     <mergeCell ref="AL22:AN22"/>
     <mergeCell ref="AT10:AV10"/>
     <mergeCell ref="AT22:AV22"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="Q10:S10"/>
-    <mergeCell ref="Q17:S17"/>
-    <mergeCell ref="X10:Z10"/>
-    <mergeCell ref="X17:Z17"/>
-    <mergeCell ref="W21:Z21"/>
+    <mergeCell ref="BI32:BL32"/>
+    <mergeCell ref="BR10:BT10"/>
+    <mergeCell ref="BR28:BT28"/>
+    <mergeCell ref="BQ32:BT32"/>
+    <mergeCell ref="AT28:AV28"/>
+    <mergeCell ref="BB10:BD10"/>
+    <mergeCell ref="BB22:BD22"/>
+    <mergeCell ref="BB28:BD28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
